--- a/StructureDefinition-ext-R5-CodeSystem.property.xlsx
+++ b/StructureDefinition-ext-R5-CodeSystem.property.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -511,15 +511,6 @@
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The type of a property value.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-concept-property-type-for-R4</t>
   </si>
   <si>
     <t>base64Binary
@@ -879,8 +870,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="24.12890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.63671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3367,13 +3358,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3542,13 +3533,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
